--- a/MainTop/25.07.2025 Таня ВБ/WB_поставка_25.07.2025 Таня ВБ.xlsx
+++ b/MainTop/25.07.2025 Таня ВБ/WB_поставка_25.07.2025 Таня ВБ.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -35,27 +35,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCC"/>
+        <fgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009BD445"/>
+        <fgColor rgb="FF9BD445"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFACD"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0099FF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0066FFFF"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -71,13 +68,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -443,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,7 +626,7 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -826,7 +822,7 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>OZN1522020325</t>
+          <t>OZN1849777981</t>
         </is>
       </c>
       <c r="B38" s="3" t="n">
@@ -836,67 +832,67 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>OZN1522019560</t>
+          <t>OZN1849777651</t>
         </is>
       </c>
       <c r="B39" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>OZN1750745566</t>
+          <t>OZN1522022092</t>
         </is>
       </c>
       <c r="B40" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>OZN1625431183</t>
+          <t>OZN2449977838</t>
         </is>
       </c>
       <c r="B41" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>OZN1738652063</t>
+          <t>OZN2449978556</t>
         </is>
       </c>
       <c r="B42" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>OZN1522019498</t>
+          <t>OZN1625046385</t>
         </is>
       </c>
       <c r="B43" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>OZN1849777981</t>
+          <t>OZN1625431121</t>
         </is>
       </c>
       <c r="B44" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>OZN1849777651</t>
+          <t>OZN1532938186</t>
         </is>
       </c>
       <c r="B45" s="3" t="n">
@@ -906,7 +902,7 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>OZN1522022092</t>
+          <t>OZN1532938598</t>
         </is>
       </c>
       <c r="B46" s="3" t="n">
@@ -916,67 +912,67 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>OZN2449977838</t>
+          <t>OZN1532938508</t>
         </is>
       </c>
       <c r="B47" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>OZN2449978556</t>
+          <t>OZN1532938950</t>
         </is>
       </c>
       <c r="B48" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>OZN1625046385</t>
+          <t>OZN1738652966</t>
         </is>
       </c>
       <c r="B49" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>OZN1625431121</t>
+          <t>OZN1849777650</t>
         </is>
       </c>
       <c r="B50" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>OZN1532938186</t>
+          <t>OZN1738651829</t>
         </is>
       </c>
       <c r="B51" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>OZN1532938598</t>
+          <t>OZN2474251925</t>
         </is>
       </c>
       <c r="B52" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>OZN1532938508</t>
+          <t>OZN2449976830</t>
         </is>
       </c>
       <c r="B53" s="3" t="n">
@@ -986,7 +982,7 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>OZN1532938950</t>
+          <t>OZN1532938204</t>
         </is>
       </c>
       <c r="B54" s="3" t="n">
@@ -996,7 +992,7 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>OZN1738652966</t>
+          <t>OZN2449977972</t>
         </is>
       </c>
       <c r="B55" s="3" t="n">
@@ -1006,7 +1002,7 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>OZN1849777650</t>
+          <t>OZN2449978285</t>
         </is>
       </c>
       <c r="B56" s="3" t="n">
@@ -1014,372 +1010,312 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="inlineStr">
-        <is>
-          <t>OZN1738651829</t>
-        </is>
-      </c>
-      <c r="B57" s="4" t="n">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>OZN2449977623</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="inlineStr">
-        <is>
-          <t>OZN2474251925</t>
-        </is>
-      </c>
-      <c r="B58" s="4" t="n">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>OZN2449977090</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="inlineStr">
-        <is>
-          <t>OZN2449976830</t>
-        </is>
-      </c>
-      <c r="B59" s="4" t="n">
-        <v>4</v>
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>OZN1625046247</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="inlineStr">
-        <is>
-          <t>OZN1532938204</t>
-        </is>
-      </c>
-      <c r="B60" s="4" t="n">
-        <v>4</v>
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>OZN1738652745</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="inlineStr">
-        <is>
-          <t>OZN2449977972</t>
-        </is>
-      </c>
-      <c r="B61" s="4" t="n">
-        <v>4</v>
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>OZN1522020909</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="inlineStr">
-        <is>
-          <t>OZN2449978285</t>
-        </is>
-      </c>
-      <c r="B62" s="4" t="n">
-        <v>4</v>
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>OZN1738651917</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="inlineStr">
-        <is>
-          <t>OZN2449977623</t>
-        </is>
-      </c>
-      <c r="B63" s="4" t="n">
-        <v>4</v>
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>OZN1522020596</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="inlineStr">
-        <is>
-          <t>OZN2449977090</t>
-        </is>
-      </c>
-      <c r="B64" s="4" t="n">
-        <v>4</v>
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>OZN1522019577</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="inlineStr">
-        <is>
-          <t>OZN1625046247</t>
-        </is>
-      </c>
-      <c r="B65" s="4" t="n">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>OZN2474253882</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="inlineStr">
-        <is>
-          <t>OZN1738652745</t>
-        </is>
-      </c>
-      <c r="B66" s="4" t="n">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>OZN2474252885</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="inlineStr">
-        <is>
-          <t>OZN1522020909</t>
-        </is>
-      </c>
-      <c r="B67" s="4" t="n">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>OZN1738651684</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="inlineStr">
-        <is>
-          <t>OZN1738651917</t>
-        </is>
-      </c>
-      <c r="B68" s="4" t="n">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>OZN1522019774</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="4" t="inlineStr">
-        <is>
-          <t>OZN1522020596</t>
-        </is>
-      </c>
-      <c r="B69" s="4" t="n">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>OZN1849778110</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="4" t="inlineStr">
-        <is>
-          <t>OZN1522019577</t>
-        </is>
-      </c>
-      <c r="B70" s="4" t="n">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>OZN1849777791</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="4" t="inlineStr">
-        <is>
-          <t>OZN2474253882</t>
-        </is>
-      </c>
-      <c r="B71" s="4" t="n">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>OZN1849777581</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="4" t="inlineStr">
-        <is>
-          <t>OZN2474252885</t>
-        </is>
-      </c>
-      <c r="B72" s="4" t="n">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>OZN1626838871</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="4" t="inlineStr">
-        <is>
-          <t>OZN1738651684</t>
-        </is>
-      </c>
-      <c r="B73" s="4" t="n">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>OZN1506320059</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="4" t="inlineStr">
-        <is>
-          <t>OZN1522019774</t>
-        </is>
-      </c>
-      <c r="B74" s="4" t="n">
-        <v>2</v>
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>OZN1849778040</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>OZN1849778110</t>
+          <t>OZN1506318053</t>
         </is>
       </c>
       <c r="B75" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>OZN1849777791</t>
+          <t>OZN1912202795</t>
         </is>
       </c>
       <c r="B76" s="4" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>OZN1849777581</t>
+          <t>OZN1506318429</t>
         </is>
       </c>
       <c r="B77" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>OZN1626838871</t>
+          <t>OZN1912202150</t>
         </is>
       </c>
       <c r="B78" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>OZN1506320059</t>
+          <t>OZN1912202800</t>
         </is>
       </c>
       <c r="B79" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>OZN1849778040</t>
+          <t>OZN1506319337</t>
         </is>
       </c>
       <c r="B80" s="4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>OZN1506318053</t>
+          <t>OZN1912202814</t>
         </is>
       </c>
       <c r="B81" s="4" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>OZN1912202795</t>
+          <t>OZN1912202762</t>
         </is>
       </c>
       <c r="B82" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>OZN1506318429</t>
+          <t>OZN1506319317</t>
         </is>
       </c>
       <c r="B83" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>OZN1912202150</t>
+          <t>OZN1506319594</t>
         </is>
       </c>
       <c r="B84" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="5" t="inlineStr">
-        <is>
-          <t>OZN1912202800</t>
-        </is>
-      </c>
-      <c r="B85" s="5" t="n">
-        <v>12</v>
+      <c r="A85" s="4" t="inlineStr">
+        <is>
+          <t>OZN1912202516</t>
+        </is>
+      </c>
+      <c r="B85" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="5" t="inlineStr">
-        <is>
-          <t>OZN1506319337</t>
-        </is>
-      </c>
-      <c r="B86" s="5" t="n">
-        <v>12</v>
+      <c r="A86" s="4" t="inlineStr">
+        <is>
+          <t>OZN1506319347</t>
+        </is>
+      </c>
+      <c r="B86" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="5" t="inlineStr">
-        <is>
-          <t>OZN1912202814</t>
-        </is>
-      </c>
-      <c r="B87" s="5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="5" t="inlineStr">
-        <is>
-          <t>OZN1912202762</t>
-        </is>
-      </c>
-      <c r="B88" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="5" t="inlineStr">
-        <is>
-          <t>OZN1506319317</t>
-        </is>
-      </c>
-      <c r="B89" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="5" t="inlineStr">
-        <is>
-          <t>OZN1506319594</t>
-        </is>
-      </c>
-      <c r="B90" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="5" t="inlineStr">
-        <is>
-          <t>OZN1912202516</t>
-        </is>
-      </c>
-      <c r="B91" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="5" t="inlineStr">
-        <is>
-          <t>OZN1506319347</t>
-        </is>
-      </c>
-      <c r="B92" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="5" t="inlineStr">
+      <c r="A87" s="4" t="inlineStr">
         <is>
           <t>OZN1506318356</t>
         </is>
       </c>
-      <c r="B93" s="5" t="n">
+      <c r="B87" s="4" t="n">
         <v>4</v>
       </c>
     </row>
